--- a/outputs-HGR-r202/test-o__Enterobacterales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Enterobacterales_split_pruned.xlsx
@@ -14,15 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>even_MAG-GUT1861.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT2060.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43440.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48773.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49487.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT7546.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT8151.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91702.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91898.fa</t>
   </si>
   <si>
     <t>1-f__Aeromonadaceae</t>
@@ -82,10 +103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="21.140625" customWidth="true"/>
     <col min="3" max="3" width="22.7109375" customWidth="true"/>
     <col min="4" max="4" width="23.140625" customWidth="true"/>
@@ -97,16 +118,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -114,16 +135,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2199157930221119e-14</v>
+        <v>1.3876687356327915e-13</v>
       </c>
       <c r="C2">
-        <v>0.045803018241009699</v>
+        <v>0.96002464577356883</v>
       </c>
       <c r="D2">
-        <v>0.95419698175896817</v>
+        <v>0.039975354226292364</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -131,16 +152,135 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>3.1577109936791775e-14</v>
+      </c>
+      <c r="C3">
+        <v>0.9014243546668872</v>
+      </c>
+      <c r="D3">
+        <v>0.098575645333081344</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.5142127848797911e-14</v>
+      </c>
+      <c r="C4">
+        <v>0.99583712566953175</v>
+      </c>
+      <c r="D4">
+        <v>0.0041628743303930744</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.2203888417342466e-14</v>
+      </c>
+      <c r="C5">
+        <v>0.57155665513086962</v>
+      </c>
+      <c r="D5">
+        <v>0.42844334486910823</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.3264900826771916e-14</v>
+      </c>
+      <c r="C6">
+        <v>0.99869256103916326</v>
+      </c>
+      <c r="D6">
+        <v>0.0013074389608034062</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.2199157930221119e-14</v>
+      </c>
+      <c r="C7">
+        <v>0.045803018241009699</v>
+      </c>
+      <c r="D7">
+        <v>0.95419698175896817</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>2.2198078572402539e-14</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>0.0010110106664108253</v>
       </c>
-      <c r="D3">
+      <c r="D8">
         <v>0.99898898933356695</v>
       </c>
-      <c r="E3">
+      <c r="E8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.1337528544780954e-13</v>
+      </c>
+      <c r="C9">
+        <v>0.9969678831168195</v>
+      </c>
+      <c r="D9">
+        <v>0.0030321168830670566</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.4794337878577942e-14</v>
+      </c>
+      <c r="C10">
+        <v>0.99920773739771185</v>
+      </c>
+      <c r="D10">
+        <v>0.00079226260226333486</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
